--- a/Data/Burundi final test.xlsx
+++ b/Data/Burundi final test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298195EB-8241-4D60-9593-668247536485}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E528F-684B-4BF8-91A0-5F01A95B864C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3292" yWindow="1020" windowWidth="15428" windowHeight="11760" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -474,131 +474,7 @@
   <dxfs count="31">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -852,6 +728,130 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1072,30 +1072,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2032,7 +2032,7 @@
         <v>29.352</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>11917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>29.821000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>29.928000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2102,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67700975-B69D-4F23-A553-6F8EE09FC47B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>

--- a/Data/Burundi final test.xlsx
+++ b/Data/Burundi final test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E528F-684B-4BF8-91A0-5F01A95B864C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847C814-724C-4B24-8481-C2E5FB1C8339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>Name_ID</t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>BUGEGA</t>
-  </si>
-  <si>
-    <t>Ngozi Warehouse</t>
-  </si>
-  <si>
-    <t>Gitega Warehouse</t>
-  </si>
-  <si>
-    <t>Bujumbura Warehouse</t>
   </si>
   <si>
     <t>Lower</t>
@@ -484,24 +475,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -746,6 +719,24 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1078,24 +1069,24 @@
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,16 +1428,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1591,7 +1582,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>635</v>
@@ -1626,7 +1617,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1168</v>
@@ -1661,7 +1652,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>590</v>
@@ -1696,7 +1687,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>847</v>
@@ -1731,7 +1722,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>848</v>
@@ -1766,7 +1757,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>708</v>
@@ -1801,7 +1792,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>903</v>
@@ -1836,7 +1827,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>635</v>
@@ -1989,7 +1980,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2009,21 +2000,21 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -2038,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2046,7 +2037,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -2069,7 +2060,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -2110,33 +2101,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -2144,16 +2135,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -2161,16 +2152,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -2178,16 +2169,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -2195,16 +2186,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -2212,13 +2203,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2229,16 +2220,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -2246,13 +2237,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2263,16 +2254,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -2280,16 +2271,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -2297,13 +2288,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2314,13 +2305,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2331,13 +2322,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2348,13 +2339,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2365,13 +2356,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2382,13 +2373,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2399,16 +2390,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -2416,16 +2407,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -2433,16 +2424,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -2450,16 +2441,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -2467,16 +2458,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -2484,16 +2475,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -2501,16 +2492,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -2518,13 +2509,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2535,13 +2526,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2552,16 +2543,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -2569,13 +2560,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>0</v>

--- a/Data/Burundi final test.xlsx
+++ b/Data/Burundi final test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847C814-724C-4B24-8481-C2E5FB1C8339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647765A-6F1A-426B-BA5F-DB8B9D146668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="772" yWindow="1470" windowWidth="21608" windowHeight="10515" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,6 @@
     <t>Total Sum of Commodities</t>
   </si>
   <si>
-    <t>Consumption per day in mt</t>
-  </si>
-  <si>
-    <t>Consumption per week in mt</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>CD107-69U</t>
+  </si>
+  <si>
+    <t>Consumption per day in MT</t>
+  </si>
+  <si>
+    <t>Consumption per week in MT</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
     <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="21"/>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1416,33 +1416,33 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>409</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>556</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>664</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>866</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>635</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1168</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>590</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>847</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>848</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>708</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>903</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>635</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>1160</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>548</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>551</v>
@@ -1979,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1994,27 +1994,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -2101,33 +2101,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -2135,16 +2135,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -2152,16 +2152,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -2169,16 +2169,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -2186,16 +2186,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2254,16 +2254,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2390,16 +2390,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -2407,16 +2407,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -2424,16 +2424,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -2441,16 +2441,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2526,13 +2526,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -2560,13 +2560,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>0</v>
